--- a/outputs-r202/g__Campylobacter.xlsx
+++ b/outputs-r202/g__Campylobacter.xlsx
@@ -528,46 +528,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>8.927843529103851e-10</v>
+        <v>1.314253309378483e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.881342537217104e-08</v>
+        <v>3.493414085972777e-10</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999999802935682</v>
+        <v>0.9999999865079033</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220446045884347e-14</v>
+        <v>2.220446046945777e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9999999802935682</v>
+        <v>0.9999999865079033</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
